--- a/03_Outputs/all/idx15_vejez_loadings_y_tops.xlsx
+++ b/03_Outputs/all/idx15_vejez_loadings_y_tops.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,6 +376,16 @@
           <t>loading</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo_pct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -391,6 +401,12 @@
       <c r="C2">
         <v>0.09973086403021417</v>
       </c>
+      <c r="D2">
+        <v>0.03139484107463039</v>
+      </c>
+      <c r="E2">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -406,6 +422,12 @@
       <c r="C3">
         <v>0.1117667859729648</v>
       </c>
+      <c r="D3">
+        <v>0.03518369681406161</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -421,6 +443,12 @@
       <c r="C4">
         <v>-0.3265570062931232</v>
       </c>
+      <c r="D4">
+        <v>0.1027987214797788</v>
+      </c>
+      <c r="E4">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -436,6 +464,12 @@
       <c r="C5">
         <v>-0.3399163748758203</v>
       </c>
+      <c r="D5">
+        <v>0.1070041924499704</v>
+      </c>
+      <c r="E5">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -451,6 +485,12 @@
       <c r="C6">
         <v>-0.3214616480686798</v>
       </c>
+      <c r="D6">
+        <v>0.1011947249313658</v>
+      </c>
+      <c r="E6">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -466,6 +506,12 @@
       <c r="C7">
         <v>-0.3199444383984239</v>
       </c>
+      <c r="D7">
+        <v>0.1007171139436565</v>
+      </c>
+      <c r="E7">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -481,6 +527,12 @@
       <c r="C8">
         <v>-0.3397674389857416</v>
       </c>
+      <c r="D8">
+        <v>0.1069573080812767</v>
+      </c>
+      <c r="E8">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -496,6 +548,12 @@
       <c r="C9">
         <v>-0.3227825222717792</v>
       </c>
+      <c r="D9">
+        <v>0.101610530370225</v>
+      </c>
+      <c r="E9">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -511,6 +569,12 @@
       <c r="C10">
         <v>-0.324023298067293</v>
       </c>
+      <c r="D10">
+        <v>0.1020011211796819</v>
+      </c>
+      <c r="E10">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -526,6 +590,12 @@
       <c r="C11">
         <v>-0.3433343390301466</v>
       </c>
+      <c r="D11">
+        <v>0.1080801526601551</v>
+      </c>
+      <c r="E11">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -541,6 +611,12 @@
       <c r="C12">
         <v>-0.3273793669084303</v>
       </c>
+      <c r="D12">
+        <v>0.1030575970151976</v>
+      </c>
+      <c r="E12">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -556,6 +632,12 @@
       <c r="C13">
         <v>-0.6848562294461199</v>
       </c>
+      <c r="D13">
+        <v>0.3349745480735647</v>
+      </c>
+      <c r="E13">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -571,6 +653,12 @@
       <c r="C14">
         <v>-0.6756794671073886</v>
       </c>
+      <c r="D14">
+        <v>0.3304860413110854</v>
+      </c>
+      <c r="E14">
+        <v>33</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -586,6 +674,12 @@
       <c r="C15">
         <v>-0.1303970310628331</v>
       </c>
+      <c r="D15">
+        <v>0.06377935203383231</v>
+      </c>
+      <c r="E15">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -601,6 +695,12 @@
       <c r="C16">
         <v>-0.08540437522493254</v>
       </c>
+      <c r="D16">
+        <v>0.04177269734059949</v>
+      </c>
+      <c r="E16">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -616,6 +716,12 @@
       <c r="C17">
         <v>-0.1634979729208387</v>
       </c>
+      <c r="D17">
+        <v>0.07996957205805873</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -631,6 +737,12 @@
       <c r="C18">
         <v>-0.0692558519041144</v>
       </c>
+      <c r="D18">
+        <v>0.03387418657459346</v>
+      </c>
+      <c r="E18">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -646,6 +758,12 @@
       <c r="C19">
         <v>0.04746383737327158</v>
       </c>
+      <c r="D19">
+        <v>0.02321535059527361</v>
+      </c>
+      <c r="E19">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -661,6 +779,12 @@
       <c r="C20">
         <v>-0.105954647448731</v>
       </c>
+      <c r="D20">
+        <v>0.05182417654890419</v>
+      </c>
+      <c r="E20">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -676,6 +800,12 @@
       <c r="C21">
         <v>0.07099330611955959</v>
       </c>
+      <c r="D21">
+        <v>0.03472400426711552</v>
+      </c>
+      <c r="E21">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -691,6 +821,12 @@
       <c r="C22">
         <v>-0.008978403917360447</v>
       </c>
+      <c r="D22">
+        <v>0.004391486366521184</v>
+      </c>
+      <c r="E22">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -706,6 +842,12 @@
       <c r="C23">
         <v>0.00202116394622883</v>
       </c>
+      <c r="D23">
+        <v>0.0009885848304514112</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -721,6 +863,12 @@
       <c r="C24">
         <v>-0.06674126946168862</v>
       </c>
+      <c r="D24">
+        <v>0.02416042494444904</v>
+      </c>
+      <c r="E24">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -736,6 +884,12 @@
       <c r="C25">
         <v>-0.1323257723475859</v>
       </c>
+      <c r="D25">
+        <v>0.0479020989083118</v>
+      </c>
+      <c r="E25">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -751,6 +905,12 @@
       <c r="C26">
         <v>0.3738966360973872</v>
       </c>
+      <c r="D26">
+        <v>0.135351060689644</v>
+      </c>
+      <c r="E26">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -766,6 +926,12 @@
       <c r="C27">
         <v>-0.02702734265885785</v>
       </c>
+      <c r="D27">
+        <v>0.009783932625556021</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -781,6 +947,12 @@
       <c r="C28">
         <v>0.3275897200620355</v>
       </c>
+      <c r="D28">
+        <v>0.118587897832467</v>
+      </c>
+      <c r="E28">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -796,6 +968,12 @@
       <c r="C29">
         <v>-0.4620623786981109</v>
       </c>
+      <c r="D29">
+        <v>0.1672671723242773</v>
+      </c>
+      <c r="E29">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -811,6 +989,12 @@
       <c r="C30">
         <v>0.09812111350242669</v>
       </c>
+      <c r="D30">
+        <v>0.03551996863952318</v>
+      </c>
+      <c r="E30">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -826,6 +1010,12 @@
       <c r="C31">
         <v>0.4009970044280373</v>
       </c>
+      <c r="D31">
+        <v>0.1451614287018294</v>
+      </c>
+      <c r="E31">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -841,6 +1031,12 @@
       <c r="C32">
         <v>-0.3944094051705772</v>
       </c>
+      <c r="D32">
+        <v>0.1427767093414142</v>
+      </c>
+      <c r="E32">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -856,6 +1052,12 @@
       <c r="C33">
         <v>0.04486388804747223</v>
       </c>
+      <c r="D33">
+        <v>0.01624078487912676</v>
+      </c>
+      <c r="E33">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -871,6 +1073,12 @@
       <c r="C34">
         <v>-0.4343866444490169</v>
       </c>
+      <c r="D34">
+        <v>0.1572485211134012</v>
+      </c>
+      <c r="E34">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -886,6 +1094,12 @@
       <c r="C35">
         <v>0.7158103551942502</v>
       </c>
+      <c r="D35">
+        <v>0.4141558961340695</v>
+      </c>
+      <c r="E35">
+        <v>41.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -901,6 +1115,12 @@
       <c r="C36">
         <v>-0.686393698797557</v>
       </c>
+      <c r="D36">
+        <v>0.3971359108784296</v>
+      </c>
+      <c r="E36">
+        <v>39.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -916,6 +1136,12 @@
       <c r="C37">
         <v>-0.01913703977081345</v>
       </c>
+      <c r="D37">
+        <v>0.01107237105208371</v>
+      </c>
+      <c r="E37">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -931,6 +1157,12 @@
       <c r="C38">
         <v>-0.05129824279763013</v>
       </c>
+      <c r="D38">
+        <v>0.0296803050721307</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -946,6 +1178,12 @@
       <c r="C39">
         <v>-0.06972033089627955</v>
       </c>
+      <c r="D39">
+        <v>0.04033901704771601</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -961,6 +1199,12 @@
       <c r="C40">
         <v>-0.03163049488087103</v>
       </c>
+      <c r="D40">
+        <v>0.01830087516545677</v>
+      </c>
+      <c r="E40">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -976,6 +1220,12 @@
       <c r="C41">
         <v>0.04423577817649339</v>
       </c>
+      <c r="D41">
+        <v>0.02559408119613173</v>
+      </c>
+      <c r="E41">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -991,6 +1241,12 @@
       <c r="C42">
         <v>0.01062066423544356</v>
       </c>
+      <c r="D42">
+        <v>0.006144938644783274</v>
+      </c>
+      <c r="E42">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1006,6 +1262,12 @@
       <c r="C43">
         <v>0.07055657119032743</v>
       </c>
+      <c r="D43">
+        <v>0.0408228516916991</v>
+      </c>
+      <c r="E43">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1021,6 +1283,12 @@
       <c r="C44">
         <v>0.005731690748194089</v>
       </c>
+      <c r="D44">
+        <v>0.003316260376727149</v>
+      </c>
+      <c r="E44">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1036,6 +1304,12 @@
       <c r="C45">
         <v>0.02322482075343597</v>
       </c>
+      <c r="D45">
+        <v>0.01343749274077234</v>
+      </c>
+      <c r="E45">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1051,6 +1325,12 @@
       <c r="C46">
         <v>0.01924816627717579</v>
       </c>
+      <c r="D46">
+        <v>0.007242795861812786</v>
+      </c>
+      <c r="E46">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1066,6 +1346,12 @@
       <c r="C47">
         <v>0.185922086004703</v>
       </c>
+      <c r="D47">
+        <v>0.06995968840581131</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1081,6 +1367,12 @@
       <c r="C48">
         <v>9.235458815358347E-06</v>
       </c>
+      <c r="D48">
+        <v>3.475164435229226E-06</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1096,6 +1388,12 @@
       <c r="C49">
         <v>-0.3646572324232827</v>
       </c>
+      <c r="D49">
+        <v>0.1372150393935073</v>
+      </c>
+      <c r="E49">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1111,6 +1409,12 @@
       <c r="C50">
         <v>-0.5214640214091507</v>
       </c>
+      <c r="D50">
+        <v>0.1962190788441492</v>
+      </c>
+      <c r="E50">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1126,6 +1430,12 @@
       <c r="C51">
         <v>-0.3103673966613938</v>
       </c>
+      <c r="D51">
+        <v>0.1167865896319854</v>
+      </c>
+      <c r="E51">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1141,6 +1451,12 @@
       <c r="C52">
         <v>0.3920112670726069</v>
       </c>
+      <c r="D52">
+        <v>0.1475079517732666</v>
+      </c>
+      <c r="E52">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1156,6 +1472,12 @@
       <c r="C53">
         <v>0.4120126855000394</v>
       </c>
+      <c r="D53">
+        <v>0.1550341851053412</v>
+      </c>
+      <c r="E53">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1171,6 +1493,12 @@
       <c r="C54">
         <v>0.3702002667018949</v>
       </c>
+      <c r="D54">
+        <v>0.1393007999359349</v>
+      </c>
+      <c r="E54">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1186,6 +1514,12 @@
       <c r="C55">
         <v>0.04434086808771891</v>
       </c>
+      <c r="D55">
+        <v>0.01668480265965566</v>
+      </c>
+      <c r="E55">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1201,6 +1535,12 @@
       <c r="C56">
         <v>0.03732701003827407</v>
       </c>
+      <c r="D56">
+        <v>0.01404559322410028</v>
+      </c>
+      <c r="E56">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1216,6 +1556,12 @@
       <c r="C57">
         <v>-0.003069649793732834</v>
       </c>
+      <c r="D57">
+        <v>0.001204103200348556</v>
+      </c>
+      <c r="E57">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1231,6 +1577,12 @@
       <c r="C58">
         <v>0.0265139113607471</v>
       </c>
+      <c r="D58">
+        <v>0.01040036736060718</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1246,6 +1598,12 @@
       <c r="C59">
         <v>0.08217096360146066</v>
       </c>
+      <c r="D59">
+        <v>0.03223244568492784</v>
+      </c>
+      <c r="E59">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1261,6 +1619,12 @@
       <c r="C60">
         <v>-0.1762749801218854</v>
       </c>
+      <c r="D60">
+        <v>0.06914575992984225</v>
+      </c>
+      <c r="E60">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1276,6 +1640,12 @@
       <c r="C61">
         <v>0.4946071052762591</v>
       </c>
+      <c r="D61">
+        <v>0.1940149653534429</v>
+      </c>
+      <c r="E61">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1291,6 +1661,12 @@
       <c r="C62">
         <v>-0.448054194814614</v>
       </c>
+      <c r="D62">
+        <v>0.1757540847191599</v>
+      </c>
+      <c r="E62">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1306,6 +1682,12 @@
       <c r="C63">
         <v>-0.1948908046322571</v>
       </c>
+      <c r="D63">
+        <v>0.07644801763879333</v>
+      </c>
+      <c r="E63">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1321,6 +1703,12 @@
       <c r="C64">
         <v>-0.2352018358079193</v>
       </c>
+      <c r="D64">
+        <v>0.09226045388056411</v>
+      </c>
+      <c r="E64">
+        <v>9.199999999999999</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1336,6 +1724,12 @@
       <c r="C65">
         <v>0.616630135945576</v>
       </c>
+      <c r="D65">
+        <v>0.241879813664521</v>
+      </c>
+      <c r="E65">
+        <v>24.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1351,6 +1745,12 @@
       <c r="C66">
         <v>-0.1887336530914386</v>
       </c>
+      <c r="D66">
+        <v>0.07403280861707785</v>
+      </c>
+      <c r="E66">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1366,6 +1766,12 @@
       <c r="C67">
         <v>0.08317726933771549</v>
       </c>
+      <c r="D67">
+        <v>0.03262717995071523</v>
+      </c>
+      <c r="E67">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1381,6 +1787,12 @@
       <c r="C68">
         <v>0.0612950441682164</v>
       </c>
+      <c r="D68">
+        <v>0.02291073471214702</v>
+      </c>
+      <c r="E68">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1396,6 +1808,12 @@
       <c r="C69">
         <v>0.08200039485602588</v>
       </c>
+      <c r="D69">
+        <v>0.03064993782665189</v>
+      </c>
+      <c r="E69">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1411,6 +1829,12 @@
       <c r="C70">
         <v>-0.248678105673325</v>
       </c>
+      <c r="D70">
+        <v>0.09295038750873617</v>
+      </c>
+      <c r="E70">
+        <v>9.300000000000001</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1426,6 +1850,12 @@
       <c r="C71">
         <v>0.3325221167456655</v>
       </c>
+      <c r="D71">
+        <v>0.1242894283879461</v>
+      </c>
+      <c r="E71">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1441,6 +1871,12 @@
       <c r="C72">
         <v>0.003901561979505625</v>
       </c>
+      <c r="D72">
+        <v>0.001458317759428309</v>
+      </c>
+      <c r="E72">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1456,6 +1892,12 @@
       <c r="C73">
         <v>-0.3497993002024693</v>
       </c>
+      <c r="D73">
+        <v>0.1307472582520639</v>
+      </c>
+      <c r="E73">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1471,6 +1913,12 @@
       <c r="C74">
         <v>0.4831156485559015</v>
       </c>
+      <c r="D74">
+        <v>0.1805779669393</v>
+      </c>
+      <c r="E74">
+        <v>18.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1486,6 +1934,12 @@
       <c r="C75">
         <v>-0.4874570817487703</v>
       </c>
+      <c r="D75">
+        <v>0.1822006988502088</v>
+      </c>
+      <c r="E75">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1501,6 +1955,12 @@
       <c r="C76">
         <v>-0.007402211457623302</v>
       </c>
+      <c r="D76">
+        <v>0.002766783274083371</v>
+      </c>
+      <c r="E76">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1516,6 +1976,12 @@
       <c r="C77">
         <v>0.4359981457885228</v>
       </c>
+      <c r="D77">
+        <v>0.1629664843006755</v>
+      </c>
+      <c r="E77">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1531,6 +1997,12 @@
       <c r="C78">
         <v>-0.1832157458775142</v>
       </c>
+      <c r="D78">
+        <v>0.06848200218875898</v>
+      </c>
+      <c r="E78">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1546,6 +2018,12 @@
       <c r="C79">
         <v>0.006052522317535233</v>
       </c>
+      <c r="D79">
+        <v>0.002563373905376615</v>
+      </c>
+      <c r="E79">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1561,6 +2039,12 @@
       <c r="C80">
         <v>0.01686441733444054</v>
       </c>
+      <c r="D80">
+        <v>0.007142444927339054</v>
+      </c>
+      <c r="E80">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1576,6 +2060,12 @@
       <c r="C81">
         <v>0.002358033007237382</v>
       </c>
+      <c r="D81">
+        <v>0.0009986779001635406</v>
+      </c>
+      <c r="E81">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1591,6 +2081,12 @@
       <c r="C82">
         <v>-0.6716514114259207</v>
       </c>
+      <c r="D82">
+        <v>0.2844588770157072</v>
+      </c>
+      <c r="E82">
+        <v>28.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1606,6 +2102,12 @@
       <c r="C83">
         <v>0.3386375229786395</v>
       </c>
+      <c r="D83">
+        <v>0.1434203038409144</v>
+      </c>
+      <c r="E83">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1621,6 +2123,12 @@
       <c r="C84">
         <v>0.2988740656140522</v>
       </c>
+      <c r="D84">
+        <v>0.1265796209572456</v>
+      </c>
+      <c r="E84">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1636,6 +2144,12 @@
       <c r="C85">
         <v>0.4935188536014335</v>
       </c>
+      <c r="D85">
+        <v>0.2090158920138393</v>
+      </c>
+      <c r="E85">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1651,6 +2165,12 @@
       <c r="C86">
         <v>-0.2356487210882993</v>
       </c>
+      <c r="D86">
+        <v>0.09980232220260657</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1666,6 +2186,12 @@
       <c r="C87">
         <v>-0.2023122271276396</v>
       </c>
+      <c r="D87">
+        <v>0.08568359711043715</v>
+      </c>
+      <c r="E87">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1681,6 +2207,12 @@
       <c r="C88">
         <v>-0.04726511408021958</v>
       </c>
+      <c r="D88">
+        <v>0.02001779650062041</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1696,6 +2228,12 @@
       <c r="C89">
         <v>0.04797180089076394</v>
       </c>
+      <c r="D89">
+        <v>0.02031709362575037</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1711,6 +2249,12 @@
       <c r="C90">
         <v>0.003390834203300265</v>
       </c>
+      <c r="D90">
+        <v>0.001731630097336324</v>
+      </c>
+      <c r="E90">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1726,6 +2270,12 @@
       <c r="C91">
         <v>-0.004317040279266325</v>
       </c>
+      <c r="D91">
+        <v>0.002204624712029544</v>
+      </c>
+      <c r="E91">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1741,6 +2291,12 @@
       <c r="C92">
         <v>-0.8074350926594043</v>
       </c>
+      <c r="D92">
+        <v>0.4123406879444987</v>
+      </c>
+      <c r="E92">
+        <v>41.2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1756,6 +2312,12 @@
       <c r="C93">
         <v>0.0703522263802978</v>
       </c>
+      <c r="D93">
+        <v>0.03592745186307606</v>
+      </c>
+      <c r="E93">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1771,6 +2333,12 @@
       <c r="C94">
         <v>0.3508187580736193</v>
       </c>
+      <c r="D94">
+        <v>0.1791560081584547</v>
+      </c>
+      <c r="E94">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1786,6 +2354,12 @@
       <c r="C95">
         <v>0.01636794470897248</v>
       </c>
+      <c r="D95">
+        <v>0.008358776628479034</v>
+      </c>
+      <c r="E95">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1801,6 +2375,12 @@
       <c r="C96">
         <v>0.06915451710110658</v>
       </c>
+      <c r="D96">
+        <v>0.03531580608172588</v>
+      </c>
+      <c r="E96">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1816,6 +2396,12 @@
       <c r="C97">
         <v>0.447157213465708</v>
       </c>
+      <c r="D97">
+        <v>0.2283540989189722</v>
+      </c>
+      <c r="E97">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1831,6 +2417,12 @@
       <c r="C98">
         <v>0.02667139671848507</v>
       </c>
+      <c r="D98">
+        <v>0.01362054011687584</v>
+      </c>
+      <c r="E98">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1846,6 +2438,12 @@
       <c r="C99">
         <v>-0.1044853288521701</v>
       </c>
+      <c r="D99">
+        <v>0.05335853342354629</v>
+      </c>
+      <c r="E99">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1861,6 +2459,12 @@
       <c r="C100">
         <v>-0.05802432268962166</v>
       </c>
+      <c r="D100">
+        <v>0.02963184205500548</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1876,6 +2480,12 @@
       <c r="C101">
         <v>-0.001228420202874626</v>
       </c>
+      <c r="D101">
+        <v>0.0005986852203992626</v>
+      </c>
+      <c r="E101">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1891,6 +2501,12 @@
       <c r="C102">
         <v>0.002332709828561726</v>
       </c>
+      <c r="D102">
+        <v>0.001136873925202399</v>
+      </c>
+      <c r="E102">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1906,6 +2522,12 @@
       <c r="C103">
         <v>-0.07365656365624985</v>
       </c>
+      <c r="D103">
+        <v>0.03589740379000822</v>
+      </c>
+      <c r="E103">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1921,6 +2543,12 @@
       <c r="C104">
         <v>-0.06669572715716815</v>
       </c>
+      <c r="D104">
+        <v>0.03250495719570446</v>
+      </c>
+      <c r="E104">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1936,6 +2564,12 @@
       <c r="C105">
         <v>0.03663586762031703</v>
       </c>
+      <c r="D105">
+        <v>0.01785492653854233</v>
+      </c>
+      <c r="E105">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1951,6 +2585,12 @@
       <c r="C106">
         <v>-0.4024617197211133</v>
       </c>
+      <c r="D106">
+        <v>0.1961445137499846</v>
+      </c>
+      <c r="E106">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1966,6 +2606,12 @@
       <c r="C107">
         <v>-0.08294520078684491</v>
       </c>
+      <c r="D107">
+        <v>0.04042433175384816</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1981,6 +2627,12 @@
       <c r="C108">
         <v>0.03813287587927646</v>
       </c>
+      <c r="D108">
+        <v>0.01858451134784241</v>
+      </c>
+      <c r="E108">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1996,6 +2648,12 @@
       <c r="C109">
         <v>-0.4050633809762635</v>
       </c>
+      <c r="D109">
+        <v>0.1974124643570317</v>
+      </c>
+      <c r="E109">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2011,6 +2669,12 @@
       <c r="C110">
         <v>0.1472877766231196</v>
       </c>
+      <c r="D110">
+        <v>0.07178245261953689</v>
+      </c>
+      <c r="E110">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2026,6 +2690,12 @@
       <c r="C111">
         <v>0.7954230089165906</v>
       </c>
+      <c r="D111">
+        <v>0.3876588795018996</v>
+      </c>
+      <c r="E111">
+        <v>38.8</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2041,6 +2711,12 @@
       <c r="C112">
         <v>0.0004485557780545155</v>
       </c>
+      <c r="D112">
+        <v>0.0002108134167944506</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2056,6 +2732,12 @@
       <c r="C113">
         <v>-0.004057369331852936</v>
       </c>
+      <c r="D113">
+        <v>0.001906893041830306</v>
+      </c>
+      <c r="E113">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2071,6 +2753,12 @@
       <c r="C114">
         <v>0.101079518309937</v>
       </c>
+      <c r="D114">
+        <v>0.04750561616946834</v>
+      </c>
+      <c r="E114">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2086,6 +2774,12 @@
       <c r="C115">
         <v>0.372382687123984</v>
       </c>
+      <c r="D115">
+        <v>0.1750133884534757</v>
+      </c>
+      <c r="E115">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2101,6 +2795,12 @@
       <c r="C116">
         <v>-0.04568781303118497</v>
       </c>
+      <c r="D116">
+        <v>0.02147247776574076</v>
+      </c>
+      <c r="E116">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2116,6 +2816,12 @@
       <c r="C117">
         <v>-0.08560355089224814</v>
       </c>
+      <c r="D117">
+        <v>0.04023218055868895</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2131,6 +2837,12 @@
       <c r="C118">
         <v>0.4363961652102809</v>
       </c>
+      <c r="D118">
+        <v>0.205098610172833</v>
+      </c>
+      <c r="E118">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2146,6 +2858,12 @@
       <c r="C119">
         <v>-0.06364658102076494</v>
       </c>
+      <c r="D119">
+        <v>0.02991278647767543</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2161,6 +2879,12 @@
       <c r="C120">
         <v>-0.07986329668630759</v>
       </c>
+      <c r="D120">
+        <v>0.03753436088580098</v>
+      </c>
+      <c r="E120">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2176,6 +2900,12 @@
       <c r="C121">
         <v>-0.7857923056102508</v>
       </c>
+      <c r="D121">
+        <v>0.3693087213255184</v>
+      </c>
+      <c r="E121">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2190,6 +2920,12 @@
       </c>
       <c r="C122">
         <v>0.1527804427133475</v>
+      </c>
+      <c r="D122">
+        <v>0.07180415173217358</v>
+      </c>
+      <c r="E122">
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
